--- a/ig/30-modifier-code-prolongee-prorogee/eclaire-study-status-concept-map.xlsx
+++ b/ig/30-modifier-code-prolongee-prorogee/eclaire-study-status-concept-map.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-27T12:30:09+00:00</t>
+    <t>2023-07-27T13:09:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -132,7 +132,7 @@
     <t>temporarily-closed-to-accrual-and-intervention</t>
   </si>
   <si>
-    <t>prolongee-prorogee</t>
+    <t>prorogee</t>
   </si>
   <si>
     <t>expiree</t>
